--- a/Analytics/E0/TGMXcorners_e0.xlsx
+++ b/Analytics/E0/TGMXcorners_e0.xlsx
@@ -82,73 +82,73 @@
     <t>20</t>
   </si>
   <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
     <t>Man United</t>
   </si>
   <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
   </si>
   <si>
     <t>Chelsea</t>
   </si>
   <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
     <t>Newcastle</t>
   </si>
   <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
     <t>Nottm Forest</t>
   </si>
   <si>
+    <t>Leicester</t>
+  </si>
+  <si>
     <t>Crystal Palace</t>
   </si>
   <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("TTGMXcorners")</t>
   </si>
   <si>
-    <t>SUM("TTGMXcorners") / 38</t>
+    <t>SUM("TTGMXcorners") / 10</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>43273.0</v>
+        <v>12926.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>43090.0</v>
+        <v>12825.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>42673.0</v>
+        <v>12689.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>39846.0</v>
+        <v>12355.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>39741.0</v>
+        <v>10328.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>38614.0</v>
+        <v>8330.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>38056.0</v>
+        <v>8271.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>37552.0</v>
+        <v>8192.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>37275.0</v>
+        <v>8101.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>35653.0</v>
+        <v>7839.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>35088.0</v>
+        <v>7534.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>33546.0</v>
+        <v>7037.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>32285.0</v>
+        <v>6674.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>31433.0</v>
+        <v>6350.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>31002.0</v>
+        <v>5619.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>30172.0</v>
+        <v>5587.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>29688.0</v>
+        <v>5522.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>29570.0</v>
+        <v>5323.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>28295.0</v>
+        <v>4747.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>23411.0</v>
+        <v>2857.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>45266.0</v>
+        <v>14649.0</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>43341.0</v>
+        <v>12831.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>41062.0</v>
+        <v>9252.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>40425.0</v>
+        <v>9042.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>39630.0</v>
+        <v>8714.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>38345.0</v>
+        <v>8705.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>37908.0</v>
+        <v>8603.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>37789.0</v>
+        <v>8210.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>36947.0</v>
+        <v>8077.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>36570.0</v>
+        <v>7995.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>36088.0</v>
+        <v>7613.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>35640.0</v>
+        <v>7180.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>34896.0</v>
+        <v>6984.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>31144.0</v>
+        <v>6710.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>28530.0</v>
+        <v>6672.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>28342.0</v>
+        <v>6455.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>28028.0</v>
+        <v>6067.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>27533.0</v>
+        <v>5313.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20" t="n">
-        <v>27116.0</v>
+        <v>5078.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>25663.0</v>
+        <v>4956.0</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +703,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>86014.0</v>
+        <v>25520.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2263.5263157894738</v>
+        <v>2552.0</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>85007.0</v>
+        <v>21428.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2237.0263157894738</v>
+        <v>2142.8</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>82720.0</v>
+        <v>20921.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2176.842105263158</v>
+        <v>2092.1</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>81062.0</v>
+        <v>19396.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2133.2105263157896</v>
+        <v>1939.6</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>76522.0</v>
+        <v>17311.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2013.7368421052631</v>
+        <v>1731.1</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>76078.0</v>
+        <v>17234.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2002.0526315789473</v>
+        <v>1723.4</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>75620.0</v>
+        <v>17000.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1990.0</v>
+        <v>1700.0</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>74499.0</v>
+        <v>16976.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1960.5</v>
+        <v>1697.6</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>73696.0</v>
+        <v>16815.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1939.3684210526317</v>
+        <v>1681.5</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>70990.0</v>
+        <v>16786.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1868.157894736842</v>
+        <v>1678.6</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>70632.0</v>
+        <v>15247.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1858.7368421052631</v>
+        <v>1524.7</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>68373.0</v>
+        <v>14823.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1799.2894736842106</v>
+        <v>1482.3</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>66329.0</v>
+        <v>14785.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1745.5</v>
+        <v>1478.5</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>64865.0</v>
+        <v>13696.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1706.9736842105262</v>
+        <v>1369.6</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>62204.0</v>
+        <v>13200.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1636.9473684210527</v>
+        <v>1320.0</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>61079.0</v>
+        <v>12033.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1607.342105263158</v>
+        <v>1203.3</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>58702.0</v>
+        <v>11987.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1544.7894736842106</v>
+        <v>1198.7</v>
       </c>
     </row>
     <row r="19">
@@ -941,10 +941,10 @@
         <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>58030.0</v>
+        <v>11589.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1527.1052631578948</v>
+        <v>1158.9</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="n">
-        <v>56665.0</v>
+        <v>11428.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1491.1842105263158</v>
+        <v>1142.8</v>
       </c>
     </row>
     <row r="21">
@@ -969,10 +969,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>51439.0</v>
+        <v>10037.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1353.657894736842</v>
+        <v>1003.7</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E0/TGMXcorners_e0.xlsx
+++ b/Analytics/E0/TGMXcorners_e0.xlsx
@@ -82,61 +82,61 @@
     <t>20</t>
   </si>
   <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
     <t>Brentford</t>
   </si>
   <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
     <t>Wolves</t>
   </si>
   <si>
     <t>Arsenal</t>
   </si>
   <si>
+    <t>Southampton</t>
+  </si>
+  <si>
     <t>Brighton</t>
   </si>
   <si>
+    <t>West Ham</t>
+  </si>
+  <si>
     <t>Fulham</t>
   </si>
   <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>West Ham</t>
+    <t>Leicester</t>
   </si>
   <si>
     <t>Aston Villa</t>
   </si>
   <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
     <t>Everton</t>
   </si>
   <si>
     <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Man United</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Leicester</t>
   </si>
   <si>
     <t>Crystal Palace</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>12926.0</v>
+        <v>22120.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>12825.0</v>
+        <v>18122.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>12689.0</v>
+        <v>16228.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>12355.0</v>
+        <v>15383.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>10328.0</v>
+        <v>15322.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>8330.0</v>
+        <v>14945.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>8271.0</v>
+        <v>13097.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>8192.0</v>
+        <v>12913.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>8101.0</v>
+        <v>12563.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>7839.0</v>
+        <v>12298.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>7534.0</v>
+        <v>12237.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>7037.0</v>
+        <v>11792.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>6674.0</v>
+        <v>10464.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>6350.0</v>
+        <v>10345.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>5619.0</v>
+        <v>10148.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>5587.0</v>
+        <v>9808.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>5522.0</v>
+        <v>9692.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>5323.0</v>
+        <v>8987.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>4747.0</v>
+        <v>8773.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>2857.0</v>
+        <v>8652.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>14649.0</v>
+        <v>18391.0</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>12831.0</v>
+        <v>17843.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>9252.0</v>
+        <v>17492.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>9042.0</v>
+        <v>16263.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>8714.0</v>
+        <v>13079.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>8705.0</v>
+        <v>12934.0</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>8603.0</v>
+        <v>12819.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>8210.0</v>
+        <v>12651.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>8077.0</v>
+        <v>12588.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>7995.0</v>
+        <v>12584.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>7613.0</v>
+        <v>12420.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>7180.0</v>
+        <v>12143.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>6984.0</v>
+        <v>11908.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>6710.0</v>
+        <v>11765.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>6672.0</v>
+        <v>11620.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>6455.0</v>
+        <v>10739.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>6067.0</v>
+        <v>10503.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>5313.0</v>
+        <v>9419.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>5078.0</v>
+        <v>9004.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>4956.0</v>
+        <v>7724.0</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +703,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>25520.0</v>
+        <v>34071.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2552.0</v>
+        <v>3407.1</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>21428.0</v>
+        <v>33740.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2142.8</v>
+        <v>3374.0</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>20921.0</v>
+        <v>30954.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2092.1</v>
+        <v>3095.4</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>19396.0</v>
+        <v>30941.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1939.6</v>
+        <v>3094.1</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>17311.0</v>
+        <v>28024.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1731.1</v>
+        <v>2802.4</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>17234.0</v>
+        <v>27640.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1723.4</v>
+        <v>2764.0</v>
       </c>
     </row>
     <row r="8">
@@ -787,10 +787,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>17000.0</v>
+        <v>26061.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1700.0</v>
+        <v>2606.1</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>16976.0</v>
+        <v>25748.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1697.6</v>
+        <v>2574.8</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>16815.0</v>
+        <v>25036.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1681.5</v>
+        <v>2503.6</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>16786.0</v>
+        <v>24718.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1678.6</v>
+        <v>2471.8</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>15247.0</v>
+        <v>24678.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1524.7</v>
+        <v>2467.8</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>14823.0</v>
+        <v>24387.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1482.3</v>
+        <v>2438.7</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>14785.0</v>
+        <v>24145.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1478.5</v>
+        <v>2414.5</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>13696.0</v>
+        <v>23935.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1369.6</v>
+        <v>2393.5</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>13200.0</v>
+        <v>23398.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1320.0</v>
+        <v>2339.8</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>12033.0</v>
+        <v>22929.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1203.3</v>
+        <v>2292.9</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>11987.0</v>
+        <v>21240.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1198.7</v>
+        <v>2124.0</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>11589.0</v>
+        <v>20311.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1158.9</v>
+        <v>2031.1</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>11428.0</v>
+        <v>19111.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1142.8</v>
+        <v>1911.1</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>10037.0</v>
+        <v>16711.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1003.7</v>
+        <v>1671.1</v>
       </c>
     </row>
   </sheetData>
